--- a/hane_buyukluk.xlsx
+++ b/hane_buyukluk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="BuÇalışmaKitabı"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtgun\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtgun\OneDrive\Belgeler\GitHub\muy665-bahar2024-takim-what-R-we-doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B25F005-9384-4180-86DB-CA0BBB572443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6783E31A-7A8B-46B7-A72F-1344B906F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B10" sheetId="1" r:id="rId1"/>
@@ -36,121 +36,121 @@
     <t>Ortalama Net (m2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ADALAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ARNAVUTKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ATAŞEHİR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AVCILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAĞCILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAHÇELİEVLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAKIRKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAŞAKŞEHİR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BAYRAMPAŞA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEŞİKTAŞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEYKOZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEYLİKDÜZÜ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BEYOĞLU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BÜYÜKÇEKMECE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÇATALCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÇEKMEKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESENLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESENYURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EYÜPSULTAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FATİH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAZİOSMANPAŞA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GÜNGÖREN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KADIKÖY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KAĞITHANE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KARTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KÜÇÜKÇEKMECE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MALTEPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PENDİK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SANCAKTEPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SARIYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SİLİVRİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SULTANBEYLİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SULTANGAZİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ŞİLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ŞİŞLİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TUZLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÜMRANİYE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ÜSKÜDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ZEYTİNBURNU</t>
+    <t>Adalar</t>
+  </si>
+  <si>
+    <t>Arnavutköy</t>
+  </si>
+  <si>
+    <t>Ataşehir</t>
+  </si>
+  <si>
+    <t>Avcılar</t>
+  </si>
+  <si>
+    <t>Bağcılar</t>
+  </si>
+  <si>
+    <t>Bahçelievler</t>
+  </si>
+  <si>
+    <t>Bakırköy</t>
+  </si>
+  <si>
+    <t>Başakşehir</t>
+  </si>
+  <si>
+    <t>Bayrampaşa</t>
+  </si>
+  <si>
+    <t>Beşiktaş</t>
+  </si>
+  <si>
+    <t>Beykoz</t>
+  </si>
+  <si>
+    <t>Beylikdüzü</t>
+  </si>
+  <si>
+    <t>Beyoğlu</t>
+  </si>
+  <si>
+    <t>Büyükçekmece</t>
+  </si>
+  <si>
+    <t>Çatalca</t>
+  </si>
+  <si>
+    <t>Çekmeköy</t>
+  </si>
+  <si>
+    <t>Esenler</t>
+  </si>
+  <si>
+    <t>Esenyurt</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Gaziosmanpaşa</t>
+  </si>
+  <si>
+    <t>Güngören</t>
+  </si>
+  <si>
+    <t>Kadıköy</t>
+  </si>
+  <si>
+    <t>Kağıthane</t>
+  </si>
+  <si>
+    <t>Kartal</t>
+  </si>
+  <si>
+    <t>Küçükçekmece</t>
+  </si>
+  <si>
+    <t>Maltepe</t>
+  </si>
+  <si>
+    <t>Pendik</t>
+  </si>
+  <si>
+    <t>Sancaktepe</t>
+  </si>
+  <si>
+    <t>Sarıyer</t>
+  </si>
+  <si>
+    <t>Şile</t>
+  </si>
+  <si>
+    <t>Silivri</t>
+  </si>
+  <si>
+    <t>Şişli</t>
+  </si>
+  <si>
+    <t>Sultanbeyli</t>
+  </si>
+  <si>
+    <t>Sultangazi</t>
+  </si>
+  <si>
+    <t>Tuzla</t>
+  </si>
+  <si>
+    <t>Ümraniye</t>
+  </si>
+  <si>
+    <t>Üsküdar</t>
+  </si>
+  <si>
+    <t>Zeytinburnu</t>
+  </si>
+  <si>
+    <t>Eyüpsultan</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,7 +547,9 @@
   <sheetPr codeName="Sayfa13"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -572,431 +571,431 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>94</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>102</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>108</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>103</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>105</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>103</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>109</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>106</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>93</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>105</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>105</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>115</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>87</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>113</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>112</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>103</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>98</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>101</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5">
+        <v>93</v>
+      </c>
+      <c r="C20" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B21" s="5">
+        <v>85</v>
+      </c>
+      <c r="C21" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5">
+        <v>95</v>
+      </c>
+      <c r="C22" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5">
+        <v>94</v>
+      </c>
+      <c r="C23" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5">
+        <v>104</v>
+      </c>
+      <c r="C24" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5">
         <v>93</v>
       </c>
-      <c r="C20" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6">
-        <v>85</v>
-      </c>
-      <c r="C21" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="C25" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5">
+        <v>104</v>
+      </c>
+      <c r="C26" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="5">
+        <v>101</v>
+      </c>
+      <c r="C27" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="5">
+        <v>111</v>
+      </c>
+      <c r="C28" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5">
+        <v>101</v>
+      </c>
+      <c r="C29" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5">
+        <v>102</v>
+      </c>
+      <c r="C30" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="5">
+        <v>98</v>
+      </c>
+      <c r="C31" s="5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5">
+        <v>120</v>
+      </c>
+      <c r="C32" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
+        <v>111</v>
+      </c>
+      <c r="C33" s="5">
         <v>95</v>
       </c>
-      <c r="C22" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="5">
+        <v>96</v>
+      </c>
+      <c r="C34" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5">
         <v>94</v>
       </c>
-      <c r="C23" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6">
-        <v>104</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="C35" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="5">
+        <v>100</v>
+      </c>
+      <c r="C36" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="5">
+        <v>99</v>
+      </c>
+      <c r="C37" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="5">
+        <v>99</v>
+      </c>
+      <c r="C38" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5">
+        <v>103</v>
+      </c>
+      <c r="C39" s="5">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6">
-        <v>93</v>
-      </c>
-      <c r="C25" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="6">
-        <v>104</v>
-      </c>
-      <c r="C26" s="6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="6">
-        <v>101</v>
-      </c>
-      <c r="C27" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="6">
-        <v>111</v>
-      </c>
-      <c r="C28" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6">
-        <v>101</v>
-      </c>
-      <c r="C29" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="6">
-        <v>102</v>
-      </c>
-      <c r="C30" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="6">
-        <v>98</v>
-      </c>
-      <c r="C31" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="6">
-        <v>120</v>
-      </c>
-      <c r="C32" s="6">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="6">
-        <v>111</v>
-      </c>
-      <c r="C33" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="6">
-        <v>96</v>
-      </c>
-      <c r="C34" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="5">
         <v>94</v>
       </c>
-      <c r="C35" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="6">
-        <v>100</v>
-      </c>
-      <c r="C36" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="6">
-        <v>99</v>
-      </c>
-      <c r="C37" s="6">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="6">
-        <v>99</v>
-      </c>
-      <c r="C38" s="6">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="6">
-        <v>103</v>
-      </c>
-      <c r="C39" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6">
-        <v>94</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>84</v>
       </c>
     </row>
